--- a/metrics/GCN/model_confusion_matrix_GCN_sentences.xlsx
+++ b/metrics/GCN/model_confusion_matrix_GCN_sentences.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
